--- a/nba.xlsx
+++ b/nba.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>In Season Tournament</t>
-  </si>
-  <si>
     <t>Opp_Points_Last_Game</t>
   </si>
   <si>
@@ -308,6 +305,24 @@
   <si>
     <t>Opp_Def_Rating_Last_Game</t>
   </si>
+  <si>
+    <t>In_Season_Tournament</t>
+  </si>
+  <si>
+    <t>Celtics_Spread_Diff</t>
+  </si>
+  <si>
+    <t>Opp_Spread_Diff</t>
+  </si>
+  <si>
+    <t>Celtics_Spread_Payout</t>
+  </si>
+  <si>
+    <t>Opp_Spread_Payout</t>
+  </si>
+  <si>
+    <t>Betting Data</t>
+  </si>
 </sst>
 </file>
 
@@ -317,7 +332,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +341,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -409,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -428,15 +451,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,13 +744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS248"/>
+  <dimension ref="A1:AW248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN10" sqref="AN10"/>
+      <selection pane="bottomRight" activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,65 +798,75 @@
     <col min="42" max="42" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.28515625" style="3" customWidth="1"/>
     <col min="44" max="44" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12" style="3" customWidth="1"/>
+    <col min="45" max="45" width="12" style="2" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:49" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="18" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="18" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="22"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -841,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -910,34 +946,34 @@
         <v>29</v>
       </c>
       <c r="AA2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AF2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AD2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AG2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AH2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AI2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="AK2" s="3" t="s">
         <v>30</v>
@@ -963,11 +999,23 @@
       <c r="AR2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AS2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW2" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>'Celtics Game Data'!A2</f>
         <v>45224</v>
@@ -1023,11 +1071,23 @@
         <f t="shared" ref="AR3:AR34" si="1">SUM(AO3:AP3)</f>
         <v>212</v>
       </c>
-      <c r="AS3" s="3">
+      <c r="AS3" s="2">
         <v>223</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT3" s="3">
+        <v>-3.5</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>-112</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="AW3" s="4">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>'Celtics Game Data'!A3</f>
         <v>45226</v>
@@ -1147,11 +1207,23 @@
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="AS4" s="3">
+      <c r="AS4" s="2">
         <v>217.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT4" s="3">
+        <v>-8.5</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>-110</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>'Celtics Game Data'!A4</f>
         <v>45229</v>
@@ -1271,11 +1343,23 @@
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
-      <c r="AS5" s="3">
+      <c r="AS5" s="2">
         <v>231.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT5" s="3">
+        <v>-10.5</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>-115</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="AW5" s="4">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>'Celtics Game Data'!A5</f>
         <v>45231</v>
@@ -1395,11 +1479,23 @@
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="AS6" s="9">
+      <c r="AS6" s="19">
         <v>233.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT6" s="9">
+        <v>-11.5</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>-110</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>'Celtics Game Data'!A6</f>
         <v>45234</v>
@@ -1519,11 +1615,23 @@
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="AS7" s="9">
+      <c r="AS7" s="19">
         <v>227.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT7" s="9">
+        <v>-9.5</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>-110</v>
+      </c>
+      <c r="AV7" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45236</v>
       </c>
@@ -1648,11 +1756,23 @@
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="AS8" s="9">
+      <c r="AS8" s="19">
         <v>222</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT8" s="9">
+        <v>-3.5</v>
+      </c>
+      <c r="AU8" s="9">
+        <v>-110</v>
+      </c>
+      <c r="AV8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>'Celtics Game Data'!A8</f>
         <v>45238</v>
@@ -1778,11 +1898,23 @@
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
-      <c r="AS9" s="9">
+      <c r="AS9" s="19">
         <v>229.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT9" s="9">
+        <v>-1.5</v>
+      </c>
+      <c r="AU9" s="9">
+        <v>-108</v>
+      </c>
+      <c r="AV9" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AW9" s="4">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>'Celtics Game Data'!A9</f>
         <v>45240</v>
@@ -1908,11 +2040,23 @@
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
-      <c r="AS10" s="9">
+      <c r="AS10" s="19">
         <v>229</v>
       </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT10" s="9">
+        <v>-10.5</v>
+      </c>
+      <c r="AU10" s="9">
+        <v>-110</v>
+      </c>
+      <c r="AV10" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="AW10" s="4">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>'Celtics Game Data'!A10</f>
         <v>45241</v>
@@ -2038,11 +2182,23 @@
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="AS11" s="9">
+      <c r="AS11" s="19">
         <v>223</v>
       </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT11" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="AU11" s="9">
+        <v>-105</v>
+      </c>
+      <c r="AV11" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="AW11" s="4">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>'Celtics Game Data'!A11</f>
         <v>45243</v>
@@ -2168,11 +2324,23 @@
         <f t="shared" si="1"/>
         <v>212</v>
       </c>
-      <c r="AS12" s="9">
+      <c r="AS12" s="19">
         <v>220.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT12" s="9">
+        <v>-9.5</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>-115</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>9</v>
+      </c>
+      <c r="AW12" s="4">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>'Celtics Game Data'!A12</f>
         <v>45245</v>
@@ -2333,11 +2501,23 @@
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="AS13" s="9">
+      <c r="AS13" s="19">
         <v>223.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT13" s="9">
+        <v>-1.5</v>
+      </c>
+      <c r="AU13" s="9">
+        <v>-105</v>
+      </c>
+      <c r="AV13" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AW13" s="4">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>'Celtics Game Data'!A13</f>
         <v>45247</v>
@@ -2498,11 +2678,23 @@
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="AS14" s="9">
+      <c r="AS14" s="19">
         <v>224</v>
       </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT14" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="AU14" s="9">
+        <v>-115</v>
+      </c>
+      <c r="AV14" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="AW14" s="4">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>'Celtics Game Data'!A14</f>
         <v>45249</v>
@@ -2663,11 +2855,23 @@
         <f t="shared" si="1"/>
         <v>202</v>
       </c>
-      <c r="AS15" s="9">
+      <c r="AS15" s="19">
         <v>222.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT15" s="9">
+        <v>-12.5</v>
+      </c>
+      <c r="AU15" s="9">
+        <v>-110</v>
+      </c>
+      <c r="AV15" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="AW15" s="4">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>'Celtics Game Data'!A15</f>
         <v>45250</v>
@@ -2828,11 +3032,23 @@
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
-      <c r="AS16" s="9">
+      <c r="AS16" s="19">
         <v>234</v>
       </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT16" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="AU16" s="9">
+        <v>-115</v>
+      </c>
+      <c r="AV16" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="AW16" s="4">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>'Celtics Game Data'!A16</f>
         <v>45252</v>
@@ -2993,11 +3209,23 @@
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="AS17" s="9">
+      <c r="AS17" s="19">
         <v>235.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT17" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="AU17" s="9">
+        <v>-105</v>
+      </c>
+      <c r="AV17" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="AW17" s="4">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>'Celtics Game Data'!A17</f>
         <v>45254</v>
@@ -3158,11 +3386,23 @@
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
-      <c r="AS18" s="9">
+      <c r="AS18" s="19">
         <v>221</v>
       </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT18" s="9">
+        <v>-5.5</v>
+      </c>
+      <c r="AU18" s="9">
+        <v>-110</v>
+      </c>
+      <c r="AV18" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="AW18" s="4">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>'Celtics Game Data'!A18</f>
         <v>45256</v>
@@ -3323,11 +3563,23 @@
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="AS19" s="9">
+      <c r="AS19" s="19">
         <v>236</v>
       </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT19" s="9">
+        <v>-7.5</v>
+      </c>
+      <c r="AU19" s="9">
+        <v>-115</v>
+      </c>
+      <c r="AV19" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="AW19" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>'Celtics Game Data'!A19</f>
         <v>45258</v>
@@ -3488,11 +3740,23 @@
         <f t="shared" si="1"/>
         <v>221</v>
       </c>
-      <c r="AS20" s="9">
+      <c r="AS20" s="19">
         <v>219.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT20" s="9">
+        <v>-12.5</v>
+      </c>
+      <c r="AU20" s="9">
+        <v>-110</v>
+      </c>
+      <c r="AV20" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="AW20" s="4">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>'Celtics Game Data'!A20</f>
         <v>45261</v>
@@ -3653,11 +3917,23 @@
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
-      <c r="AS21" s="9">
+      <c r="AS21" s="19">
         <v>218</v>
       </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT21" s="9">
+        <v>-11.5</v>
+      </c>
+      <c r="AU21" s="9">
+        <v>-115</v>
+      </c>
+      <c r="AV21" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="AW21" s="4">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>'Celtics Game Data'!A21</f>
         <v>45264</v>
@@ -3818,11 +4094,26 @@
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="AS22" s="9">
+      <c r="AS22" s="19">
         <v>244.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT22" s="9">
+        <v>-4.5</v>
+      </c>
+      <c r="AU22" s="3">
+        <f>-110</f>
+        <v>-110</v>
+      </c>
+      <c r="AV22" s="3">
+        <f>AT22*-1</f>
+        <v>4.5</v>
+      </c>
+      <c r="AW22" s="4">
+        <f>AU22</f>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>'Celtics Game Data'!A22</f>
         <v>45268</v>
@@ -3983,11 +4274,26 @@
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="AS23" s="9">
+      <c r="AS23" s="19">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT23" s="9">
+        <v>-7.5</v>
+      </c>
+      <c r="AU23" s="3">
+        <f>-110</f>
+        <v>-110</v>
+      </c>
+      <c r="AV23" s="3">
+        <f t="shared" ref="AV23:AV84" si="2">AT23*-1</f>
+        <v>7.5</v>
+      </c>
+      <c r="AW23" s="4">
+        <f t="shared" ref="AW23:AW84" si="3">AU23</f>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>'Celtics Game Data'!A23</f>
         <v>45272</v>
@@ -4148,11 +4454,26 @@
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
-      <c r="AS24" s="9">
+      <c r="AS24" s="19">
         <v>226.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT24" s="9">
+        <v>-11.5</v>
+      </c>
+      <c r="AU24" s="3">
+        <f t="shared" ref="AU24:AU84" si="4">-110</f>
+        <v>-110</v>
+      </c>
+      <c r="AV24" s="3">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="AW24" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f>'Celtics Game Data'!A24</f>
         <v>45274</v>
@@ -4313,11 +4634,26 @@
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="AS25" s="9">
+      <c r="AS25" s="19">
         <v>227.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT25" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="AU25" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV25" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="AW25" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>'Celtics Game Data'!A25</f>
         <v>45275</v>
@@ -4478,11 +4814,26 @@
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
-      <c r="AS26" s="9">
+      <c r="AS26" s="19">
         <v>227.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT26" s="9">
+        <v>-5.5</v>
+      </c>
+      <c r="AU26" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV26" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="AW26" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>'Celtics Game Data'!A26</f>
         <v>45277</v>
@@ -4643,11 +4994,26 @@
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="AS27" s="9">
+      <c r="AS27" s="19">
         <v>226</v>
       </c>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT27" s="9">
+        <v>-9.5</v>
+      </c>
+      <c r="AU27" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV27" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="AW27" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>'Celtics Game Data'!A27</f>
         <v>45279</v>
@@ -4808,11 +5174,26 @@
         <f t="shared" si="1"/>
         <v>258</v>
       </c>
-      <c r="AS28" s="9">
+      <c r="AS28" s="19">
         <v>233.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT28" s="9">
+        <v>-5.5</v>
+      </c>
+      <c r="AU28" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV28" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="AW28" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>'Celtics Game Data'!A28</f>
         <v>45280</v>
@@ -4973,11 +5354,26 @@
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
-      <c r="AS29" s="9">
+      <c r="AS29" s="19">
         <v>238.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT29" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="AU29" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV29" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AW29" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>'Celtics Game Data'!A29</f>
         <v>45283</v>
@@ -5138,11 +5534,26 @@
         <f t="shared" si="1"/>
         <v>253</v>
       </c>
-      <c r="AS30" s="9">
+      <c r="AS30" s="19">
         <v>231</v>
       </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT30" s="9">
+        <v>-4.5</v>
+      </c>
+      <c r="AU30" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV30" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="AW30" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>'Celtics Game Data'!A30</f>
         <v>45285</v>
@@ -5303,11 +5714,26 @@
         <f t="shared" si="1"/>
         <v>241</v>
       </c>
-      <c r="AS31" s="9">
+      <c r="AS31" s="19">
         <v>235</v>
       </c>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT31" s="9">
+        <v>-5</v>
+      </c>
+      <c r="AU31" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV31" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AW31" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>'Celtics Game Data'!A31</f>
         <v>45288</v>
@@ -5468,11 +5894,26 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="AS32" s="9">
+      <c r="AS32" s="19">
         <v>234</v>
       </c>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT32" s="9">
+        <v>-16.5</v>
+      </c>
+      <c r="AU32" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV32" s="3">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="AW32" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f>'Celtics Game Data'!A32</f>
         <v>45289</v>
@@ -5633,11 +6074,26 @@
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="AS33" s="9">
+      <c r="AS33" s="19">
         <v>228.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT33" s="9">
+        <v>-5.5</v>
+      </c>
+      <c r="AU33" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV33" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="AW33" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f>'Celtics Game Data'!A33</f>
         <v>45291</v>
@@ -5798,11 +6254,26 @@
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="AS34" s="9">
+      <c r="AS34" s="19">
         <v>241</v>
       </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT34" s="9">
+        <v>-14.5</v>
+      </c>
+      <c r="AU34" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV34" s="3">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="AW34" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f>'Celtics Game Data'!A34</f>
         <v>45293</v>
@@ -5956,18 +6427,33 @@
         <v>127</v>
       </c>
       <c r="AQ35" s="3">
-        <f t="shared" ref="AQ35:AQ66" si="2">AO35-AP35</f>
+        <f t="shared" ref="AQ35:AQ66" si="5">AO35-AP35</f>
         <v>-4</v>
       </c>
       <c r="AR35" s="3">
-        <f t="shared" ref="AR35:AR66" si="3">SUM(AO35:AP35)</f>
+        <f t="shared" ref="AR35:AR66" si="6">SUM(AO35:AP35)</f>
         <v>250</v>
       </c>
-      <c r="AS35" s="9">
+      <c r="AS35" s="19">
         <v>240</v>
       </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT35" s="9">
+        <v>-4.5</v>
+      </c>
+      <c r="AU35" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV35" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="AW35" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f>'Celtics Game Data'!A35</f>
         <v>45296</v>
@@ -6121,18 +6607,33 @@
         <v>97</v>
       </c>
       <c r="AQ36" s="3">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="AR36" s="3">
+        <f t="shared" si="6"/>
+        <v>223</v>
+      </c>
+      <c r="AS36" s="19">
+        <v>240.5</v>
+      </c>
+      <c r="AT36" s="9">
+        <v>-13.5</v>
+      </c>
+      <c r="AU36" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV36" s="3">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="AR36" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="AW36" s="4">
         <f t="shared" si="3"/>
-        <v>223</v>
-      </c>
-      <c r="AS36" s="9">
-        <v>240.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f>'Celtics Game Data'!A36</f>
         <v>45297</v>
@@ -6286,18 +6787,33 @@
         <v>101</v>
       </c>
       <c r="AQ37" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="AR37" s="3">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+      <c r="AS37" s="19">
+        <v>250</v>
+      </c>
+      <c r="AT37" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="AU37" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV37" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="AR37" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="AW37" s="4">
         <f t="shared" si="3"/>
-        <v>219</v>
-      </c>
-      <c r="AS37" s="9">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f>'Celtics Game Data'!A37</f>
         <v>45299</v>
@@ -6451,18 +6967,33 @@
         <v>133</v>
       </c>
       <c r="AQ38" s="3">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="AR38" s="3">
+        <f t="shared" si="6"/>
+        <v>264</v>
+      </c>
+      <c r="AS38" s="19">
+        <v>246.5</v>
+      </c>
+      <c r="AT38" s="9">
+        <v>-3.5</v>
+      </c>
+      <c r="AU38" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV38" s="3">
         <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="AR38" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="AW38" s="4">
         <f t="shared" si="3"/>
-        <v>264</v>
-      </c>
-      <c r="AS38" s="9">
-        <v>246.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f>'Celtics Game Data'!A38</f>
         <v>45301</v>
@@ -6616,18 +7147,33 @@
         <v>120</v>
       </c>
       <c r="AQ39" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AR39" s="3">
+        <f t="shared" si="6"/>
+        <v>247</v>
+      </c>
+      <c r="AS39" s="19">
+        <v>228</v>
+      </c>
+      <c r="AT39" s="9">
+        <v>-10.5</v>
+      </c>
+      <c r="AU39" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV39" s="3">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AR39" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="AW39" s="4">
         <f t="shared" si="3"/>
-        <v>247</v>
-      </c>
-      <c r="AS39" s="9">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f>'Celtics Game Data'!A39</f>
         <v>45302</v>
@@ -6781,18 +7327,33 @@
         <v>135</v>
       </c>
       <c r="AQ40" s="3">
+        <f t="shared" si="5"/>
+        <v>-33</v>
+      </c>
+      <c r="AR40" s="3">
+        <f t="shared" si="6"/>
+        <v>237</v>
+      </c>
+      <c r="AS40" s="19">
+        <v>247.5</v>
+      </c>
+      <c r="AT40" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="AU40" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV40" s="3">
         <f t="shared" si="2"/>
-        <v>-33</v>
-      </c>
-      <c r="AR40" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="AW40" s="4">
         <f t="shared" si="3"/>
-        <v>237</v>
-      </c>
-      <c r="AS40" s="9">
-        <v>247.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <f>'Celtics Game Data'!A40</f>
         <v>45304</v>
@@ -6946,18 +7507,33 @@
         <v>113</v>
       </c>
       <c r="AQ41" s="3">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="AR41" s="3">
+        <f t="shared" si="6"/>
+        <v>258</v>
+      </c>
+      <c r="AS41" s="19">
+        <v>226.5</v>
+      </c>
+      <c r="AT41" s="9">
+        <v>-14.5</v>
+      </c>
+      <c r="AU41" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV41" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="AR41" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="AW41" s="4">
         <f t="shared" si="3"/>
-        <v>258</v>
-      </c>
-      <c r="AS41" s="9">
-        <v>226.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <f>'Celtics Game Data'!A41</f>
         <v>45306</v>
@@ -7111,18 +7687,33 @@
         <v>96</v>
       </c>
       <c r="AQ42" s="3">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="AR42" s="3">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="AS42" s="19">
+        <v>238.5</v>
+      </c>
+      <c r="AT42" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="AU42" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV42" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AR42" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="AW42" s="4">
         <f t="shared" si="3"/>
-        <v>201</v>
-      </c>
-      <c r="AS42" s="9">
-        <v>238.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <f>'Celtics Game Data'!A42</f>
         <v>45308</v>
@@ -7276,18 +7867,33 @@
         <v>98</v>
       </c>
       <c r="AQ43" s="3">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="AR43" s="3">
+        <f t="shared" si="6"/>
+        <v>215</v>
+      </c>
+      <c r="AS43" s="19">
+        <v>237.5</v>
+      </c>
+      <c r="AT43" s="9">
+        <v>-14.5</v>
+      </c>
+      <c r="AU43" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV43" s="3">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="AR43" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="AW43" s="4">
         <f t="shared" si="3"/>
-        <v>215</v>
-      </c>
-      <c r="AS43" s="9">
-        <v>237.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <f>'Celtics Game Data'!A43</f>
         <v>45310</v>
@@ -7441,18 +8047,33 @@
         <v>102</v>
       </c>
       <c r="AQ44" s="3">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="AR44" s="3">
+        <f t="shared" si="6"/>
+        <v>202</v>
+      </c>
+      <c r="AS44" s="19">
+        <v>234</v>
+      </c>
+      <c r="AT44" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="AU44" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV44" s="3">
         <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="AR44" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="AW44" s="4">
         <f t="shared" si="3"/>
-        <v>202</v>
-      </c>
-      <c r="AS44" s="9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f>'Celtics Game Data'!A44</f>
         <v>45312</v>
@@ -7606,18 +8227,33 @@
         <v>107</v>
       </c>
       <c r="AQ45" s="3">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="AR45" s="3">
+        <f t="shared" si="6"/>
+        <v>223</v>
+      </c>
+      <c r="AS45" s="19">
+        <v>226.5</v>
+      </c>
+      <c r="AT45" s="9">
+        <v>-11.5</v>
+      </c>
+      <c r="AU45" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV45" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AR45" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="AW45" s="4">
         <f t="shared" si="3"/>
-        <v>223</v>
-      </c>
-      <c r="AS45" s="9">
-        <v>226.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <f>'Celtics Game Data'!A45</f>
         <v>45313</v>
@@ -7771,18 +8407,33 @@
         <v>110</v>
       </c>
       <c r="AQ46" s="3">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="AR46" s="3">
+        <f t="shared" si="6"/>
+        <v>229</v>
+      </c>
+      <c r="AS46" s="19">
+        <v>241</v>
+      </c>
+      <c r="AT46" s="9">
+        <v>-2.5</v>
+      </c>
+      <c r="AU46" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV46" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AR46" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AW46" s="4">
         <f t="shared" si="3"/>
-        <v>229</v>
-      </c>
-      <c r="AS46" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f>'Celtics Game Data'!A46</f>
         <v>45316</v>
@@ -7936,18 +8587,33 @@
         <v>110</v>
       </c>
       <c r="AQ47" s="3">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="AR47" s="3">
+        <f t="shared" si="6"/>
+        <v>253</v>
+      </c>
+      <c r="AS47" s="19">
+        <v>225</v>
+      </c>
+      <c r="AT47" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="AU47" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV47" s="3">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="AR47" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="AW47" s="4">
         <f t="shared" si="3"/>
-        <v>253</v>
-      </c>
-      <c r="AS47" s="9">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <f>'Celtics Game Data'!A47</f>
         <v>45318</v>
@@ -8099,18 +8765,33 @@
         <v>115</v>
       </c>
       <c r="AQ48" s="3">
+        <f t="shared" si="5"/>
+        <v>-19</v>
+      </c>
+      <c r="AR48" s="3">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="AS48" s="19">
+        <v>232</v>
+      </c>
+      <c r="AT48" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="AU48" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV48" s="3">
         <f t="shared" si="2"/>
-        <v>-19</v>
-      </c>
-      <c r="AR48" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="AW48" s="4">
         <f t="shared" si="3"/>
-        <v>211</v>
-      </c>
-      <c r="AS48" s="9">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <f>'Celtics Game Data'!A48</f>
         <v>45320</v>
@@ -8264,18 +8945,33 @@
         <v>112</v>
       </c>
       <c r="AQ49" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AR49" s="3">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="AS49" s="19">
+        <v>233.5</v>
+      </c>
+      <c r="AT49" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="AU49" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV49" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="AR49" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="AW49" s="4">
         <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="AS49" s="9">
-        <v>233.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f>'Celtics Game Data'!A49</f>
         <v>45321</v>
@@ -8429,18 +9125,33 @@
         <v>124</v>
       </c>
       <c r="AQ50" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AR50" s="3">
+        <f t="shared" si="6"/>
+        <v>253</v>
+      </c>
+      <c r="AS50" s="19">
+        <v>249</v>
+      </c>
+      <c r="AT50" s="9">
+        <v>-7.5</v>
+      </c>
+      <c r="AU50" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV50" s="3">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AR50" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="AW50" s="4">
         <f t="shared" si="3"/>
-        <v>253</v>
-      </c>
-      <c r="AS50" s="9">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <f>'Celtics Game Data'!A50</f>
         <v>45323</v>
@@ -8594,18 +9305,33 @@
         <v>114</v>
       </c>
       <c r="AQ51" s="3">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="AR51" s="3">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+      <c r="AS51" s="19">
+        <v>237.5</v>
+      </c>
+      <c r="AT51" s="9">
+        <v>-15.5</v>
+      </c>
+      <c r="AU51" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV51" s="3">
         <f t="shared" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="AR51" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="AW51" s="4">
         <f t="shared" si="3"/>
-        <v>219</v>
-      </c>
-      <c r="AS51" s="9">
-        <v>237.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <f>'Celtics Game Data'!A51</f>
         <v>45326</v>
@@ -8759,18 +9485,33 @@
         <v>91</v>
       </c>
       <c r="AQ52" s="3">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AR52" s="3">
+        <f t="shared" si="6"/>
+        <v>222</v>
+      </c>
+      <c r="AS52" s="19">
+        <v>219</v>
+      </c>
+      <c r="AT52" s="9">
+        <v>-19.5</v>
+      </c>
+      <c r="AU52" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV52" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="AR52" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="AW52" s="4">
         <f t="shared" si="3"/>
-        <v>222</v>
-      </c>
-      <c r="AS52" s="9">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <f>'Celtics Game Data'!A52</f>
         <v>45329</v>
@@ -8924,18 +9665,33 @@
         <v>117</v>
       </c>
       <c r="AQ53" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AR53" s="3">
+        <f t="shared" si="6"/>
+        <v>242</v>
+      </c>
+      <c r="AS53" s="19">
+        <v>244</v>
+      </c>
+      <c r="AT53" s="9">
+        <v>-12.5</v>
+      </c>
+      <c r="AU53" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV53" s="3">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="AR53" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="AW53" s="4">
         <f t="shared" si="3"/>
-        <v>242</v>
-      </c>
-      <c r="AS53" s="9">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <f>'Celtics Game Data'!A53</f>
         <v>45331</v>
@@ -9089,18 +9845,33 @@
         <v>129</v>
       </c>
       <c r="AQ54" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR54" s="3">
+        <f t="shared" si="6"/>
+        <v>262</v>
+      </c>
+      <c r="AS54" s="19">
+        <v>236.5</v>
+      </c>
+      <c r="AT54" s="9">
+        <v>-17.5</v>
+      </c>
+      <c r="AU54" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV54" s="3">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AR54" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="AW54" s="4">
         <f t="shared" si="3"/>
-        <v>262</v>
-      </c>
-      <c r="AS54" s="9">
-        <v>236.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <f>'Celtics Game Data'!A54</f>
         <v>45333</v>
@@ -9254,18 +10025,33 @@
         <v>106</v>
       </c>
       <c r="AQ55" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR55" s="3">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="AS55" s="19">
+        <v>225</v>
+      </c>
+      <c r="AT55" s="9">
+        <v>-7.5</v>
+      </c>
+      <c r="AU55" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV55" s="3">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AR55" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="AW55" s="4">
         <f t="shared" si="3"/>
-        <v>216</v>
-      </c>
-      <c r="AS55" s="9">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <f>'Celtics Game Data'!A55</f>
         <v>45335</v>
@@ -9419,18 +10205,33 @@
         <v>110</v>
       </c>
       <c r="AQ56" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AR56" s="3">
+        <f t="shared" si="6"/>
+        <v>228</v>
+      </c>
+      <c r="AS56" s="19">
+        <v>227</v>
+      </c>
+      <c r="AT56" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="AU56" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV56" s="3">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="AR56" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="AW56" s="4">
         <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="AS56" s="9">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <f>'Celtics Game Data'!A56</f>
         <v>45336</v>
@@ -9584,18 +10385,33 @@
         <v>86</v>
       </c>
       <c r="AQ57" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="AR57" s="3">
+        <f t="shared" si="6"/>
+        <v>222</v>
+      </c>
+      <c r="AS57" s="19">
+        <v>227</v>
+      </c>
+      <c r="AT57" s="9">
+        <v>-11.5</v>
+      </c>
+      <c r="AU57" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV57" s="3">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="AR57" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="AW57" s="4">
         <f t="shared" si="3"/>
-        <v>222</v>
-      </c>
-      <c r="AS57" s="9">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <f>'Celtics Game Data'!A57</f>
         <v>45344</v>
@@ -9749,18 +10565,33 @@
         <v>112</v>
       </c>
       <c r="AQ58" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="AR58" s="3">
+        <f t="shared" si="6"/>
+        <v>241</v>
+      </c>
+      <c r="AS58" s="19">
+        <v>224</v>
+      </c>
+      <c r="AT58" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="AU58" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV58" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="AR58" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="AW58" s="4">
         <f t="shared" si="3"/>
-        <v>241</v>
-      </c>
-      <c r="AS58" s="9">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <f>'Celtics Game Data'!A58</f>
         <v>45346</v>
@@ -9914,18 +10745,33 @@
         <v>102</v>
       </c>
       <c r="AQ59" s="3">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AR59" s="3">
+        <f t="shared" si="6"/>
+        <v>218</v>
+      </c>
+      <c r="AS59" s="19">
+        <v>224.5</v>
+      </c>
+      <c r="AT59" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="AU59" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV59" s="3">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="AR59" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="AW59" s="4">
         <f t="shared" si="3"/>
-        <v>218</v>
-      </c>
-      <c r="AS59" s="9">
-        <v>224.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <f>'Celtics Game Data'!A59</f>
         <v>45349</v>
@@ -10079,18 +10925,33 @@
         <v>99</v>
       </c>
       <c r="AQ60" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="AR60" s="3">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="AS60" s="19">
+        <v>231.5</v>
+      </c>
+      <c r="AT60" s="9">
+        <v>-11.5</v>
+      </c>
+      <c r="AU60" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV60" s="3">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="AR60" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="AW60" s="4">
         <f t="shared" si="3"/>
-        <v>216</v>
-      </c>
-      <c r="AS60" s="9">
-        <v>231.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <f>'Celtics Game Data'!A60</f>
         <v>45352</v>
@@ -10244,18 +11105,33 @@
         <v>110</v>
       </c>
       <c r="AQ61" s="3">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="AR61" s="3">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="AS61" s="19">
+        <v>237.5</v>
+      </c>
+      <c r="AT61" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="AU61" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV61" s="3">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="AR61" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="AW61" s="4">
         <f t="shared" si="3"/>
-        <v>248</v>
-      </c>
-      <c r="AS61" s="9">
-        <v>237.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <f>'Celtics Game Data'!A61</f>
         <v>45354</v>
@@ -10409,18 +11285,33 @@
         <v>88</v>
       </c>
       <c r="AQ62" s="3">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="AR62" s="3">
+        <f t="shared" si="6"/>
+        <v>228</v>
+      </c>
+      <c r="AS62" s="19">
+        <v>231</v>
+      </c>
+      <c r="AT62" s="9">
+        <v>-7.5</v>
+      </c>
+      <c r="AU62" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV62" s="3">
         <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="AR62" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="AW62" s="4">
         <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="AS62" s="9">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <f>'Celtics Game Data'!A62</f>
         <v>45356</v>
@@ -10574,18 +11465,33 @@
         <v>105</v>
       </c>
       <c r="AQ63" s="3">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AR63" s="3">
+        <f t="shared" si="6"/>
+        <v>209</v>
+      </c>
+      <c r="AS63" s="19">
+        <v>217</v>
+      </c>
+      <c r="AT63" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="AU63" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV63" s="3">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="AR63" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="AW63" s="4">
         <f t="shared" si="3"/>
-        <v>209</v>
-      </c>
-      <c r="AS63" s="9">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <f>'Celtics Game Data'!A63</f>
         <v>45358</v>
@@ -10739,18 +11645,33 @@
         <v>115</v>
       </c>
       <c r="AQ64" s="3">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="AR64" s="3">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="AS64" s="19">
+        <v>222</v>
+      </c>
+      <c r="AT64" s="9">
+        <v>-2.5</v>
+      </c>
+      <c r="AU64" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV64" s="3">
         <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-      <c r="AR64" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AW64" s="4">
         <f t="shared" si="3"/>
-        <v>224</v>
-      </c>
-      <c r="AS64" s="9">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <f>'Celtics Game Data'!A64</f>
         <v>45360</v>
@@ -10904,18 +11825,33 @@
         <v>107</v>
       </c>
       <c r="AQ65" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AR65" s="3">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="AS65" s="19">
+        <v>226</v>
+      </c>
+      <c r="AT65" s="9">
+        <v>-5.5</v>
+      </c>
+      <c r="AU65" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV65" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AR65" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="AW65" s="4">
         <f t="shared" si="3"/>
-        <v>224</v>
-      </c>
-      <c r="AS65" s="9">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <f>'Celtics Game Data'!A65</f>
         <v>45362</v>
@@ -11069,18 +12005,33 @@
         <v>99</v>
       </c>
       <c r="AQ66" s="3">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="AR66" s="3">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="AS66" s="19">
+        <v>221</v>
+      </c>
+      <c r="AT66" s="9">
+        <v>-11.5</v>
+      </c>
+      <c r="AU66" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV66" s="3">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="AR66" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="AW66" s="4">
         <f t="shared" si="3"/>
-        <v>220</v>
-      </c>
-      <c r="AS66" s="9">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <f>'Celtics Game Data'!A66</f>
         <v>45363</v>
@@ -11234,18 +12185,33 @@
         <v>107</v>
       </c>
       <c r="AQ67" s="3">
-        <f t="shared" ref="AQ67:AQ98" si="4">AO67-AP67</f>
+        <f t="shared" ref="AQ67:AQ84" si="7">AO67-AP67</f>
         <v>16</v>
       </c>
       <c r="AR67" s="3">
-        <f t="shared" ref="AR67:AR84" si="5">SUM(AO67:AP67)</f>
+        <f t="shared" ref="AR67:AR84" si="8">SUM(AO67:AP67)</f>
         <v>230</v>
       </c>
-      <c r="AS67" s="9">
+      <c r="AS67" s="19">
         <v>230</v>
       </c>
-    </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT67" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="AU67" s="3">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="AV67" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="AW67" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <f>'Celtics Game Data'!A67</f>
         <v>45365</v>
@@ -11399,18 +12365,33 @@
         <v>112</v>
       </c>
       <c r="AQ68" s="3">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AR68" s="3">
+        <f t="shared" si="8"/>
+        <v>239</v>
+      </c>
+      <c r="AS68" s="19">
+        <v>227</v>
+      </c>
+      <c r="AT68" s="9">
+        <v>-5.5</v>
+      </c>
+      <c r="AU68" s="3">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="AR68" s="3">
-        <f t="shared" si="5"/>
-        <v>239</v>
-      </c>
-      <c r="AS68" s="9">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV68" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="AW68" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <f>'Celtics Game Data'!A68</f>
         <v>45368</v>
@@ -11564,18 +12545,33 @@
         <v>104</v>
       </c>
       <c r="AQ69" s="3">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="AR69" s="3">
+        <f t="shared" si="8"/>
+        <v>234</v>
+      </c>
+      <c r="AS69" s="19">
+        <v>226</v>
+      </c>
+      <c r="AT69" s="9">
+        <v>-14.5</v>
+      </c>
+      <c r="AU69" s="3">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="AR69" s="3">
-        <f t="shared" si="5"/>
-        <v>234</v>
-      </c>
-      <c r="AS69" s="9">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV69" s="3">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="AW69" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <f>'Celtics Game Data'!A69</f>
         <v>45369</v>
@@ -11729,18 +12725,33 @@
         <v>94</v>
       </c>
       <c r="AQ70" s="3">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="AR70" s="3">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+      <c r="AS70" s="19">
+        <v>222</v>
+      </c>
+      <c r="AT70" s="9">
+        <v>-15.5</v>
+      </c>
+      <c r="AU70" s="3">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="AR70" s="3">
-        <f t="shared" si="5"/>
-        <v>213</v>
-      </c>
-      <c r="AS70" s="9">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV70" s="3">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="AW70" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <f>'Celtics Game Data'!A70</f>
         <v>45371</v>
@@ -11894,18 +12905,33 @@
         <v>119</v>
       </c>
       <c r="AQ71" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AR71" s="3">
+        <f t="shared" si="8"/>
+        <v>241</v>
+      </c>
+      <c r="AS71" s="19">
+        <v>226</v>
+      </c>
+      <c r="AT71" s="9">
+        <v>-10.5</v>
+      </c>
+      <c r="AU71" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AR71" s="3">
-        <f t="shared" si="5"/>
-        <v>241</v>
-      </c>
-      <c r="AS71" s="9">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV71" s="3">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="AW71" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <f>'Celtics Game Data'!A71</f>
         <v>45373</v>
@@ -12059,18 +13085,33 @@
         <v>102</v>
       </c>
       <c r="AQ72" s="3">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="AR72" s="3">
+        <f t="shared" si="8"/>
+        <v>231</v>
+      </c>
+      <c r="AS72" s="19">
+        <v>224</v>
+      </c>
+      <c r="AT72" s="9">
+        <v>-13.5</v>
+      </c>
+      <c r="AU72" s="3">
         <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="AR72" s="3">
-        <f t="shared" si="5"/>
-        <v>231</v>
-      </c>
-      <c r="AS72" s="9">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV72" s="3">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="AW72" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <f>'Celtics Game Data'!A72</f>
         <v>45374</v>
@@ -12224,18 +13265,33 @@
         <v>113</v>
       </c>
       <c r="AQ73" s="3">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AR73" s="3">
+        <f t="shared" si="8"/>
+        <v>237</v>
+      </c>
+      <c r="AS73" s="19">
+        <v>219</v>
+      </c>
+      <c r="AT73" s="9">
+        <v>-5.5</v>
+      </c>
+      <c r="AU73" s="3">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="AR73" s="3">
-        <f t="shared" si="5"/>
-        <v>237</v>
-      </c>
-      <c r="AS73" s="9">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV73" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="AW73" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <f>'Celtics Game Data'!A73</f>
         <v>45376</v>
@@ -12389,18 +13445,33 @@
         <v>120</v>
       </c>
       <c r="AQ74" s="3">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="AR74" s="3">
+        <f t="shared" si="8"/>
+        <v>238</v>
+      </c>
+      <c r="AS74" s="19">
+        <v>225</v>
+      </c>
+      <c r="AT74" s="9">
+        <v>-10.5</v>
+      </c>
+      <c r="AU74" s="3">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="AR74" s="3">
-        <f t="shared" si="5"/>
-        <v>238</v>
-      </c>
-      <c r="AS74" s="9">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV74" s="3">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="AW74" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <f>'Celtics Game Data'!A74</f>
         <v>45379</v>
@@ -12554,18 +13625,33 @@
         <v>123</v>
       </c>
       <c r="AQ75" s="3">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AR75" s="3">
+        <f t="shared" si="8"/>
+        <v>245</v>
+      </c>
+      <c r="AS75" s="19">
+        <v>228.5</v>
+      </c>
+      <c r="AT75" s="9">
+        <v>-15.5</v>
+      </c>
+      <c r="AU75" s="3">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="AR75" s="3">
-        <f t="shared" si="5"/>
-        <v>245</v>
-      </c>
-      <c r="AS75" s="9">
-        <v>228.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV75" s="3">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="AW75" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <f>'Celtics Game Data'!A75</f>
         <v>45381</v>
@@ -12719,18 +13805,33 @@
         <v>92</v>
       </c>
       <c r="AQ76" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AR76" s="3">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="AS76" s="19">
+        <v>223.5</v>
+      </c>
+      <c r="AT76" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="AU76" s="3">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="AR76" s="3">
-        <f t="shared" si="5"/>
-        <v>196</v>
-      </c>
-      <c r="AS76" s="9">
-        <v>223.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV76" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="AW76" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <f>'Celtics Game Data'!A76</f>
         <v>45383</v>
@@ -12884,18 +13985,33 @@
         <v>104</v>
       </c>
       <c r="AQ77" s="3">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="AR77" s="3">
+        <f t="shared" si="8"/>
+        <v>222</v>
+      </c>
+      <c r="AS77" s="19">
+        <v>219.5</v>
+      </c>
+      <c r="AT77" s="9">
+        <v>-18.5</v>
+      </c>
+      <c r="AU77" s="3">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="AR77" s="3">
-        <f t="shared" si="5"/>
-        <v>222</v>
-      </c>
-      <c r="AS77" s="9">
-        <v>219.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV77" s="3">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+      <c r="AW77" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <f>'Celtics Game Data'!A77</f>
         <v>45385</v>
@@ -13049,18 +14165,33 @@
         <v>100</v>
       </c>
       <c r="AQ78" s="3">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="AR78" s="3">
+        <f t="shared" si="8"/>
+        <v>235</v>
+      </c>
+      <c r="AS78" s="19">
+        <v>229</v>
+      </c>
+      <c r="AT78" s="9">
+        <v>-12.5</v>
+      </c>
+      <c r="AU78" s="3">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="AR78" s="3">
-        <f t="shared" si="5"/>
-        <v>235</v>
-      </c>
-      <c r="AS78" s="9">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV78" s="3">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="AW78" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <f>'Celtics Game Data'!A78</f>
         <v>45387</v>
@@ -13214,18 +14345,33 @@
         <v>100</v>
       </c>
       <c r="AQ79" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AR79" s="3">
+        <f t="shared" si="8"/>
+        <v>201</v>
+      </c>
+      <c r="AS79" s="19">
+        <v>226</v>
+      </c>
+      <c r="AT79" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="AU79" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AR79" s="3">
-        <f t="shared" si="5"/>
-        <v>201</v>
-      </c>
-      <c r="AS79" s="9">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV79" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="AW79" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <f>'Celtics Game Data'!A79</f>
         <v>45389</v>
@@ -13379,18 +14525,33 @@
         <v>107</v>
       </c>
       <c r="AQ80" s="3">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="AR80" s="3">
+        <f t="shared" si="8"/>
+        <v>231</v>
+      </c>
+      <c r="AS80" s="19">
+        <v>216.5</v>
+      </c>
+      <c r="AT80" s="9">
+        <v>-16.5</v>
+      </c>
+      <c r="AU80" s="3">
         <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="AR80" s="3">
-        <f t="shared" si="5"/>
-        <v>231</v>
-      </c>
-      <c r="AS80" s="9">
-        <v>216.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV80" s="3">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="AW80" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <f>'Celtics Game Data'!A80</f>
         <v>45391</v>
@@ -13544,18 +14705,33 @@
         <v>104</v>
       </c>
       <c r="AQ81" s="3">
+        <f t="shared" si="7"/>
+        <v>-13</v>
+      </c>
+      <c r="AR81" s="3">
+        <f t="shared" si="8"/>
+        <v>195</v>
+      </c>
+      <c r="AS81" s="19">
+        <v>231</v>
+      </c>
+      <c r="AT81" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="AU81" s="3">
         <f t="shared" si="4"/>
-        <v>-13</v>
-      </c>
-      <c r="AR81" s="3">
-        <f t="shared" si="5"/>
-        <v>195</v>
-      </c>
-      <c r="AS81" s="9">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV81" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.5</v>
+      </c>
+      <c r="AW81" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <f>'Celtics Game Data'!A81</f>
         <v>45393</v>
@@ -13709,18 +14885,33 @@
         <v>118</v>
       </c>
       <c r="AQ82" s="3">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+      <c r="AR82" s="3">
+        <f t="shared" si="8"/>
+        <v>227</v>
+      </c>
+      <c r="AS82" s="19">
+        <v>221.5</v>
+      </c>
+      <c r="AT82" s="9">
+        <v>-3.5</v>
+      </c>
+      <c r="AU82" s="3">
         <f t="shared" si="4"/>
-        <v>-9</v>
-      </c>
-      <c r="AR82" s="3">
-        <f t="shared" si="5"/>
-        <v>227</v>
-      </c>
-      <c r="AS82" s="9">
-        <v>221.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV82" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="AW82" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <f>'Celtics Game Data'!A82</f>
         <v>45394</v>
@@ -13874,18 +15065,33 @@
         <v>98</v>
       </c>
       <c r="AQ83" s="3">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AR83" s="3">
+        <f t="shared" si="8"/>
+        <v>229</v>
+      </c>
+      <c r="AS83" s="19">
+        <v>217.5</v>
+      </c>
+      <c r="AT83" s="9">
+        <v>-7.5</v>
+      </c>
+      <c r="AU83" s="3">
         <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="AR83" s="3">
-        <f t="shared" si="5"/>
-        <v>229</v>
-      </c>
-      <c r="AS83" s="9">
-        <v>217.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV83" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="AW83" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <f>'Celtics Game Data'!A83</f>
         <v>45396</v>
@@ -14039,54 +15245,69 @@
         <v>122</v>
       </c>
       <c r="AQ84" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AR84" s="3">
+        <f t="shared" si="8"/>
+        <v>254</v>
+      </c>
+      <c r="AS84" s="19">
+        <v>229</v>
+      </c>
+      <c r="AT84" s="9">
+        <v>-10.5</v>
+      </c>
+      <c r="AU84" s="3">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="AR84" s="3">
-        <f t="shared" si="5"/>
-        <v>254</v>
-      </c>
-      <c r="AS84" s="9">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
+        <v>-110</v>
+      </c>
+      <c r="AV84" s="3">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="AW84" s="4">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="AG85" s="17"/>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="AG86" s="17"/>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="AG87" s="17"/>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -14549,11 +15770,12 @@
   <sortState ref="A3:AY248">
     <sortCondition ref="A2"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E1:Y1"/>
     <mergeCell ref="Z1:AM1"/>
-    <mergeCell ref="AN1:AS1"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/nba.xlsx
+++ b/nba.xlsx
@@ -453,6 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,7 +463,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,10 +747,10 @@
   <dimension ref="A1:AW248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AG50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU9" sqref="AU9"/>
+      <selection pane="bottomRight" activeCell="AL77" sqref="AL77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,66 +805,66 @@
     <col min="49" max="49" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:49" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="20" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="20" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="20" t="s">
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="23"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13583,7 +13583,7 @@
         <v>44</v>
       </c>
       <c r="AD75" s="11">
-        <v>5.18</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="AE75" s="14">
         <v>16</v>
